--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>donderdag</t>
   </si>
@@ -64,6 +64,23 @@
 analyse gemaakt,
 begin gemaakt controller,</t>
   </si>
+  <si>
+    <t>Korte vergadering:
+met tutor gesproken,
+aan analyse gewerkt.
+Bijeenkomst:
+Testen met ATOS,
+praten over techn. Doc.</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+meer analyse,
+begin mobiele omgeving,
+skype opzetten,
+maven fixen,
+Scenes en licht(client),
+XML(server)</t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -180,6 +203,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +510,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,12 +563,18 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41594</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +546,6 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -558,23 +554,13 @@
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41594</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,28 +571,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41596</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41597</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41598</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>donderdag</t>
   </si>
@@ -81,6 +81,11 @@
 Scenes en licht(client),
 XML(server)</t>
   </si>
+  <si>
+    <t>Blackboard:
+groepjes bekend,
+via facebook eerste afspraken gemaakt.</t>
+  </si>
 </sst>
 </file>
 
@@ -110,13 +115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -507,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,543 +544,554 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>41590</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>41591</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>41592</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>41593</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>41594</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>41593</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>41594</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>41595</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>41596</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>41597</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>41598</v>
+        <v>41596</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>41597</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>41599</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>41600</v>
+        <v>41598</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>41601</v>
+        <v>41599</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>41602</v>
+        <v>41600</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>41603</v>
+        <v>41601</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>41604</v>
+        <v>41602</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>41605</v>
+        <v>41603</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>41606</v>
+        <v>41604</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>41607</v>
+        <v>41605</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>41608</v>
+        <v>41606</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>41609</v>
+        <v>41607</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>41610</v>
+        <v>41608</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>41611</v>
+        <v>41609</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>41615</v>
+        <v>41613</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>41616</v>
+        <v>41614</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>41617</v>
+        <v>41615</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>41618</v>
+        <v>41616</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>41622</v>
+        <v>41620</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>41623</v>
+        <v>41621</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>41624</v>
+        <v>41622</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>41625</v>
+        <v>41623</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>41629</v>
+        <v>41627</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>41630</v>
+        <v>41628</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>41631</v>
+        <v>41629</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>41632</v>
+        <v>41630</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>41633</v>
+        <v>41631</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41636</v>
+        <v>41634</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>41637</v>
+        <v>41635</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>41638</v>
+        <v>41636</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>41639</v>
+        <v>41637</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>41640</v>
+        <v>41638</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>41643</v>
+        <v>41641</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>41644</v>
+        <v>41642</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>41645</v>
+        <v>41643</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>41646</v>
+        <v>41644</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>41647</v>
+        <v>41645</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>41650</v>
+        <v>41648</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>41651</v>
+        <v>41649</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>41652</v>
+        <v>41650</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>41653</v>
+        <v>41651</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>41654</v>
+        <v>41652</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
+        <v>41653</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>41654</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>41655</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -1085,14 +1101,12 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1665,14 +1679,14 @@
       <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
+      <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
+      <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -1754,6 +1768,20 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>donderdag</t>
   </si>
@@ -86,15 +86,74 @@
 groepjes bekend,
 via facebook eerste afspraken gemaakt.</t>
   </si>
+  <si>
+    <t>Thuis werken:
+Models,
+Documentatie/planning,
+opdrachtomschrijving,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korte vergadering:
+algoritmes,
+documentatie tech doc,
+Flycam,
+Scene class,
+Networking code,
+better water,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlpanel,
+nifty menu,
+container model,
+</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+server,
+networking,
+scenes/models</t>
+  </si>
+  <si>
+    <t>thuis werken:
+Server moving box in client,
+flybycam,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Flybycam,
+Models,
+voertuig classes,
+Waypoints,
+AddAGV(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moved AGV code,
+management interface,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korte vergadering:
+Gesproken met tutor,
+Centrale bijeenkomst,
+Logboek,
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -209,6 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,36 +691,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41598</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41599</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41600</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41601</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,20 +748,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41603</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41604</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>donderdag</t>
   </si>
@@ -93,22 +93,6 @@
 opdrachtomschrijving,</t>
   </si>
   <si>
-    <t xml:space="preserve">Korte vergadering:
-algoritmes,
-documentatie tech doc,
-Flycam,
-Scene class,
-Networking code,
-better water,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controlpanel,
-nifty menu,
-container model,
-</t>
-  </si>
-  <si>
     <t>Korte vergadering:
 server,
 networking,
@@ -133,11 +117,52 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Korte vergadering:
+    <t>Korte vergadering:
 Gesproken met tutor,
 Centrale bijeenkomst,
 Logboek,
-</t>
+Fixed protocol classes,
+AGV's,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Management interface,
+Documentatie,
+TPF naar variabele,
+Kranen,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Documentatie,
+Testplan,
+test ideeen,
+Models aangepast,
+afmetingen en formaten aangepast,
+AGV's,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Junit,
+Models,</t>
+  </si>
+  <si>
+    <t>thuiswerken:
+Models aangepast,
+Textures toegevoegd,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+algoritmes,
+documentatie tech doc,
+Flycam,
+Scene class,
+Networking code,
+better water,</t>
+  </si>
+  <si>
+    <t>Controlpanel,
+nifty menu,
+container model,</t>
   </si>
 </sst>
 </file>
@@ -576,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +728,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41599</v>
       </c>
@@ -711,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -725,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -737,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +781,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -770,42 +795,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41605</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41606</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41607</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41608</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41609</v>
       </c>
@@ -813,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41610</v>
       </c>
@@ -821,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41611</v>
       </c>
@@ -829,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41612</v>
       </c>
@@ -837,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41613</v>
       </c>
@@ -845,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41614</v>
       </c>
@@ -853,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41615</v>
       </c>
@@ -861,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41616</v>
       </c>
@@ -869,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41617</v>
       </c>
@@ -877,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41618</v>
       </c>
@@ -885,7 +926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41619</v>
       </c>
@@ -893,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41620</v>
       </c>

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>donderdag</t>
   </si>
@@ -163,6 +163,19 @@
     <t>Controlpanel,
 nifty menu,
 container model,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Logboek,
+Junit,
+FPS improvements,
+documentatie,
+warnings in client,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Nieuwe models,
+FPS improvements,</t>
   </si>
 </sst>
 </file>
@@ -601,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,21 +867,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41610</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41611</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="C23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>donderdag</t>
   </si>
@@ -175,7 +175,54 @@
   <si>
     <t>Korte vergadering:
 Nieuwe models,
-FPS improvements,</t>
+FPS improvements,
+meer kranen,
+documentatie,
+Licht,
+Schepen,
+testverslag,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Testsessie ATOS,
+AGV lists,
+XML,
+Containers op schip,
+Containers</t>
+  </si>
+  <si>
+    <t>Korte Vergadering:
+Documentatie,
+Tech doc,
+Storage crane,
+Junit</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+control panel,
+Crane class</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Seacranes,
+multiple storage cranes</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Code aangepast,
+Menu,
+documentatie,
+Update method,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Analyse,
+documentatie,
+Junit,
+Animatie,
+Coordinaten,
+Container class,
+Logboek,</t>
   </si>
 </sst>
 </file>
@@ -614,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +926,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41611</v>
       </c>
@@ -891,53 +938,77 @@
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41612</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41613</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41614</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41615</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41616</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41617</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>donderdag</t>
   </si>
@@ -223,6 +223,31 @@
 Coordinaten,
 Container class,
 Logboek,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Junit,
+documentatie,
+getMessage,
+code opruimen,
+animatie,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Test plan,
+Client,
+heartbeat,
+hashmap,
+UML,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korte vergadering:
+Logboek,
+Analyse,
+Testplan,
+coordinaten,
+Management interface,
+</t>
   </si>
 </sst>
 </file>
@@ -661,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,29 +1035,41 @@
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41618</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41619</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41620</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="C32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>donderdag</t>
   </si>
@@ -247,7 +247,40 @@
 Testplan,
 coordinaten,
 Management interface,
+Performance update,
+storage,
+Coordinaten,
 </t>
+  </si>
+  <si>
+    <t>Delete scenes en models,
+find position,
+Storage crane,
+documentatie,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+MotionPath,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Dijkstra,
+Vergadering voorbereiding,
+Animations,
+Truckcrane animatie,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Train crane,
+Locaties kranen,
+Models,
+Train animation,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Storage crane coordinaten,
+Motion paths,
+Logboek,</t>
   </si>
 </sst>
 </file>
@@ -269,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -383,6 +422,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1099,7 @@
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41620</v>
       </c>
@@ -1069,41 +1109,59 @@
       <c r="C32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41621</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41622</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41623</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41624</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41625</v>
       </c>
@@ -1111,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41626</v>
       </c>
@@ -1119,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41627</v>
       </c>
@@ -1127,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41628</v>
       </c>
@@ -1135,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41629</v>
       </c>
@@ -1143,7 +1201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41630</v>
       </c>
@@ -1151,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41631</v>
       </c>
@@ -1159,7 +1217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41632</v>
       </c>
@@ -1167,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41633</v>
       </c>
@@ -1175,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41634</v>
       </c>
@@ -1183,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41635</v>
       </c>
@@ -1191,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41636</v>
       </c>

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>donderdag</t>
   </si>
@@ -247,40 +247,7 @@
 Testplan,
 coordinaten,
 Management interface,
-Performance update,
-storage,
-Coordinaten,
 </t>
-  </si>
-  <si>
-    <t>Delete scenes en models,
-find position,
-Storage crane,
-documentatie,</t>
-  </si>
-  <si>
-    <t>Thuis werken:
-MotionPath,</t>
-  </si>
-  <si>
-    <t>Thuis werken:
-Dijkstra,
-Vergadering voorbereiding,
-Animations,
-Truckcrane animatie,</t>
-  </si>
-  <si>
-    <t>Thuis werken:
-Train crane,
-Locaties kranen,
-Models,
-Train animation,</t>
-  </si>
-  <si>
-    <t>Korte vergadering:
-Storage crane coordinaten,
-Motion paths,
-Logboek,</t>
   </si>
 </sst>
 </file>
@@ -302,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +291,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -422,7 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1059,7 @@
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41620</v>
       </c>
@@ -1109,59 +1069,41 @@
       <c r="C32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41621</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41622</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41623</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41624</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41625</v>
       </c>
@@ -1169,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41626</v>
       </c>
@@ -1177,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41627</v>
       </c>
@@ -1185,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41628</v>
       </c>
@@ -1193,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41629</v>
       </c>
@@ -1201,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41630</v>
       </c>
@@ -1209,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41631</v>
       </c>
@@ -1217,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41632</v>
       </c>
@@ -1225,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41633</v>
       </c>
@@ -1233,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41634</v>
       </c>
@@ -1241,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41635</v>
       </c>
@@ -1249,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41636</v>
       </c>

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>donderdag</t>
   </si>
@@ -280,7 +280,13 @@
     <t>Korte vergadering:
 Storage crane coordinaten,
 Motion paths,
-Logboek,</t>
+Logboek,
+verwijderen applicatie,
+Documentatie,</t>
+  </si>
+  <si>
+    <t>Indeling/sortering,
+Models weggooien,</t>
   </si>
 </sst>
 </file>
@@ -727,7 +733,7 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1155,7 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41624</v>
       </c>
@@ -1159,7 +1165,9 @@
       <c r="C36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>donderdag</t>
   </si>
@@ -287,6 +287,74 @@
   <si>
     <t>Indeling/sortering,
 Models weggooien,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Xml parsing,
+documentatie,
+Test verslag,
+ship fixed,
+Tutor gesprek,
+Code opruimen,</t>
+  </si>
+  <si>
+    <t>MP class,
+removed extra light,
+variables edit,
+slowmotion-speed up</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Containers,
+Afstanden,
+Documentatie,
+Unseen = unrendered,
+Batching,
+Analyse,
+variables,
+AGV via client</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Get message,
+Containers,
+Ships,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Documentatie,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Set routes,
+Protocol,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Help functie,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Extra text in help,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Icon for Help,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Help aanpassen,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Motionpath,
+Analyse,
+render distance,
+documentatie,
+presentatie,</t>
+  </si>
+  <si>
+    <t>dijkstra,</t>
   </si>
 </sst>
 </file>
@@ -308,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +404,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -429,6 +509,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +891,7 @@
       <c r="A6" s="3">
         <v>41594</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -817,7 +899,7 @@
       <c r="A7" s="3">
         <v>41595</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -889,7 +971,7 @@
       <c r="A13" s="3">
         <v>41601</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -900,7 +982,7 @@
       <c r="A14" s="3">
         <v>41602</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -970,7 +1052,7 @@
       <c r="A20" s="3">
         <v>41608</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -981,7 +1063,7 @@
       <c r="A21" s="3">
         <v>41609</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1049,7 +1131,7 @@
       <c r="A27" s="3">
         <v>41615</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1061,7 +1143,7 @@
       <c r="A28" s="3">
         <v>41616</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -1135,7 +1217,7 @@
       <c r="A34" s="3">
         <v>41622</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -1147,7 +1229,7 @@
       <c r="A35" s="3">
         <v>41623</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -1169,56 +1251,74 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41625</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41626</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41627</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41628</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="16">
         <v>41629</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="16">
         <v>41630</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="16">
         <v>41631</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -1226,7 +1326,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="16">
         <v>41632</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -1234,7 +1334,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="16">
         <v>41633</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -1242,102 +1342,128 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="16">
         <v>41634</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>41635</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="16">
         <v>41636</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
         <v>41637</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="C49" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
         <v>41638</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
         <v>41639</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="C51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>41640</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
         <v>41641</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="C53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
         <v>41642</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
         <v>41643</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>41644</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41645</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41646</v>
       </c>
@@ -1345,7 +1471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41647</v>
       </c>
@@ -1353,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41648</v>
       </c>
@@ -1361,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41649</v>
       </c>
@@ -1369,23 +1495,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41650</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41651</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41652</v>
       </c>

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>donderdag</t>
   </si>
@@ -354,7 +354,44 @@
 presentatie,</t>
   </si>
   <si>
-    <t>dijkstra,</t>
+    <t>dijkstra,
+logboek,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Server,
+Junit,
+Motionpath,
+Agv en container,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Client error,
+Motionpath,
+evaluatie,
+networking,
+Classes deleten,</t>
+  </si>
+  <si>
+    <t>Vehicle creation,
+Nullpointer fix,
+debugging,
+truck location,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Evaluatie,
+Switch verwijderd,
+Crane,
+Containers,
+Network,
+Vehicles,</t>
+  </si>
+  <si>
+    <t>Containers + agv,
+Motionpath,
+Analyse,
+Logboek,</t>
   </si>
 </sst>
 </file>
@@ -485,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -511,6 +548,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,32 +1499,48 @@
       <c r="C57" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41646</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41647</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41648</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>0</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">

--- a/Documentatie/Logboeken/logboek containing.xlsx
+++ b/Documentatie/Logboeken/logboek containing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>donderdag</t>
   </si>
@@ -391,7 +391,19 @@
     <t>Containers + agv,
 Motionpath,
 Analyse,
-Logboek,</t>
+Logboek,
+Help functie,
+Getmessage,</t>
+  </si>
+  <si>
+    <t>Thuis werken:
+Vehicles,
+network,
+Motionpath,</t>
+  </si>
+  <si>
+    <t>Korte vergadering:
+Cranes,</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -548,9 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,19 +1545,22 @@
       <c r="B60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41649</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,21 +1571,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41651</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41652</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="C64" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
